--- a/5.Docs/成本核算.xlsx
+++ b/5.Docs/成本核算.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eHorglass\5.Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC301D30-3063-4295-BCA8-6E88ABDC457C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AA8E43-9BE9-42E9-B8F3-D1F1445B2872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6670" yWindow="4620" windowWidth="23550" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,25 +522,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E13:E14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="19.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.08203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="9.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
     <col min="7" max="7" width="9" style="4"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -563,7 +563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -587,8 +587,12 @@
         <f>E2*F2</f>
         <v>10.044</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="4">
+        <f>G2</f>
+        <v>10.044</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -612,8 +616,12 @@
         <f t="shared" ref="G3:G17" si="1">E3*F3</f>
         <v>13.306000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="4">
+        <f>G3</f>
+        <v>13.306000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -638,7 +646,7 @@
         <v>8.69</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -661,7 +669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -684,7 +692,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -707,7 +715,7 @@
         <v>13.080000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>25</v>
@@ -730,7 +738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>15</v>
@@ -753,7 +761,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -775,8 +783,12 @@
         <f t="shared" si="1"/>
         <v>6.0540000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="4">
+        <f>SUM(G4:G10)</f>
+        <v>46.104000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -794,14 +806,14 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
         <f>E11*F11</f>
-        <v>9.2100000000000009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
         <v>29</v>
@@ -817,60 +829,64 @@
         <v>12.85</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
         <f>E12*F12</f>
-        <v>12.85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="4">
-        <v>22.34</v>
+        <v>7.8</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="6">
         <f>C13/D13</f>
-        <v>22.34</v>
+        <v>7.8</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="4">
         <f>E13*F13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="4">
-        <v>31.17</v>
+        <v>10.7</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="6">
         <f>C14/D14</f>
-        <v>31.17</v>
+        <v>10.7</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4">
         <f>E14*F14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10.7</v>
+      </c>
+      <c r="H14" s="4">
+        <f>SUM(G11:G14)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
@@ -895,7 +911,7 @@
         <v>0.25719999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="2" t="s">
         <v>19</v>
@@ -918,7 +934,7 @@
         <v>0.21679999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
@@ -940,8 +956,12 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="4">
+        <f>SUM(G15:G17)</f>
+        <v>0.67399999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
@@ -966,7 +986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="2" t="s">
         <v>27</v>
@@ -988,8 +1008,12 @@
         <f>E19*F19</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="4">
+        <f>SUM(G18:G19)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -997,7 +1021,7 @@
       <c r="E20" s="5"/>
       <c r="G20" s="3">
         <f>SUM(G2:G19)</f>
-        <v>103.18799999999999</v>
+        <v>99.628</v>
       </c>
     </row>
   </sheetData>
